--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.022420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.022420.xlsx_with_dialog_acts.xlsx
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3327,12 +3327,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3537,12 +3537,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3873,12 +3873,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4293,12 +4293,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4419,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5259,12 +5259,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6229,12 +6229,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6565,12 +6565,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7613,12 +7613,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7907,12 +7907,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8163,12 +8163,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8331,12 +8331,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8457,12 +8457,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8625,12 +8625,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9973,12 +9973,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10393,12 +10393,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10519,12 +10519,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10561,12 +10561,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10729,12 +10729,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11443,12 +11443,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11821,12 +11821,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11863,12 +11863,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12283,12 +12283,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12577,12 +12577,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12745,12 +12745,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12829,12 +12829,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12875,12 +12875,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12917,12 +12917,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13001,12 +13001,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14139,12 +14139,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14307,12 +14307,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14475,12 +14475,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14689,12 +14689,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15277,12 +15277,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15575,12 +15575,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16797,12 +16797,12 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17263,12 +17263,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17473,12 +17473,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17599,12 +17599,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17851,12 +17851,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18397,12 +18397,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18523,12 +18523,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18943,12 +18943,12 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19489,12 +19489,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19825,12 +19825,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20329,12 +20329,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21043,12 +21043,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21211,12 +21211,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21253,12 +21253,12 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21505,12 +21505,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21757,12 +21757,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21967,12 +21967,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22051,12 +22051,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22261,12 +22261,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22475,12 +22475,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22685,12 +22685,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23147,12 +23147,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23231,12 +23231,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23357,12 +23357,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23693,12 +23693,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
